--- a/packages/core/demo/vue-demo/1.xlsx
+++ b/packages/core/demo/vue-demo/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="14740"/>
+    <workbookView windowWidth="28000" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>ko-kr</t>
   </si>
   <si>
-    <t>da-zi-gao</t>
+    <t>dazigao</t>
   </si>
   <si>
     <t>打字稿</t>
@@ -40,7 +40,7 @@
     <t>타자기</t>
   </si>
   <si>
-    <t>guan-yu-ye-mian</t>
+    <t>guanyuyemian</t>
   </si>
   <si>
     <t>关于页面</t>
@@ -52,7 +52,7 @@
     <t>페이지 정보</t>
   </si>
   <si>
-    <t>he-xin-wen-dang</t>
+    <t>hexinwendang</t>
   </si>
   <si>
     <t>核心文档</t>
@@ -64,7 +64,7 @@
     <t>핵심 문서</t>
   </si>
   <si>
-    <t>ji-ben-lian-jie</t>
+    <t>jibenlianjie</t>
   </si>
   <si>
     <t>基本链接</t>
@@ -76,7 +76,7 @@
     <t>기본 링크</t>
   </si>
   <si>
-    <t>lu-you-qi</t>
+    <t>luntan</t>
   </si>
   <si>
     <t>路由器</t>
@@ -88,7 +88,7 @@
     <t>라우터</t>
   </si>
   <si>
-    <t>lun-tan</t>
+    <t>luyouqi</t>
   </si>
   <si>
     <t>论坛</t>
@@ -100,7 +100,7 @@
     <t>법정</t>
   </si>
   <si>
-    <t>ni-hao</t>
+    <t>nihao</t>
   </si>
   <si>
     <t>你好</t>
@@ -112,7 +112,7 @@
     <t>여보세요</t>
   </si>
   <si>
-    <t>she-qu-liao-tian</t>
+    <t>shengtaixitong</t>
   </si>
   <si>
     <t>社区聊天</t>
@@ -124,7 +124,7 @@
     <t>커뮤니티 채팅</t>
   </si>
   <si>
-    <t>sheng-tai-xi-tong</t>
+    <t>shequliaotian</t>
   </si>
   <si>
     <t>生态系统</t>
@@ -136,7 +136,7 @@
     <t>생태계</t>
   </si>
   <si>
-    <t>shi-jie</t>
+    <t>shijie</t>
   </si>
   <si>
     <t>世界</t>
@@ -145,7 +145,7 @@
     <t>세계</t>
   </si>
   <si>
-    <t>tui-te</t>
+    <t>tuite</t>
   </si>
   <si>
     <t>推特</t>
@@ -157,7 +157,7 @@
     <t>트위터</t>
   </si>
   <si>
-    <t>xin-wen</t>
+    <t>xinwen</t>
   </si>
   <si>
     <t>新闻</t>
@@ -169,7 +169,7 @@
     <t>소식</t>
   </si>
   <si>
-    <t>zhe-shi-yi-ge-{about}</t>
+    <t>zheshiyige{about}</t>
   </si>
   <si>
     <t>这是一个{about}</t>
@@ -189,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -217,40 +217,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,100 +271,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,25 +376,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,127 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,35 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +584,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +629,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -637,181 +661,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1198,11 +1199,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="25.8928571428571" customWidth="1"/>
+    <col min="2" max="2" width="48.6607142857143" customWidth="1"/>
     <col min="3" max="3" width="35.2678571428571" customWidth="1"/>
     <col min="4" max="4" width="25.4375" customWidth="1"/>
   </cols>
@@ -1225,7 +1228,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1239,7 +1242,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -1253,7 +1256,7 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
@@ -1267,7 +1270,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1281,7 +1284,7 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
@@ -1295,7 +1298,7 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
@@ -1309,7 +1312,7 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -1323,7 +1326,7 @@
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
@@ -1337,7 +1340,7 @@
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
@@ -1351,7 +1354,7 @@
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
@@ -1365,7 +1368,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -1379,7 +1382,7 @@
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
@@ -1393,7 +1396,7 @@
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="s">
